--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_fueloil.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_fueloil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C54A6F-AB01-D249-84D2-C3D9BE33BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48E009-C3DE-3341-A91C-50F6799D7CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="71">
   <si>
     <t>Name:</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -661,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -837,26 +843,17 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" t="s">
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
-        <v>278.60000000000002</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -867,18 +864,26 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>8.3000000000000007</v>
+        <v>278.60000000000002</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -888,16 +893,13 @@
         <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
@@ -912,13 +914,19 @@
         <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -930,13 +938,13 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -948,23 +956,15 @@
         <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="G15">
-        <v>0.88</v>
-      </c>
-      <c r="I15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" t="s">
-        <v>55</v>
-      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -974,51 +974,51 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
+        <v>0.88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
         <v>0.6</v>
       </c>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
         <v>56</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>1990</v>
-      </c>
-      <c r="G17">
-        <v>386</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1032,10 @@
         <v>39</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1990</v>
+      </c>
+      <c r="G18">
+        <v>386</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
@@ -1041,7 +1044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>39</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H19" t="s">
         <v>58</v>
@@ -1064,7 +1067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H20" t="s">
         <v>58</v>
@@ -1087,7 +1090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1110,7 +1113,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1133,7 +1136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H23" t="s">
         <v>58</v>
@@ -1156,7 +1159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H24" t="s">
         <v>58</v>
@@ -1179,7 +1182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H25" t="s">
         <v>58</v>
@@ -1202,7 +1205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
@@ -1225,7 +1228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1239,10 +1242,7 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>2000</v>
-      </c>
-      <c r="G27">
-        <v>227</v>
+        <v>1999</v>
       </c>
       <c r="H27" t="s">
         <v>58</v>
@@ -1251,7 +1251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1265,7 +1265,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
+      </c>
+      <c r="G28">
+        <v>227</v>
       </c>
       <c r="H28" t="s">
         <v>58</v>
@@ -1274,7 +1277,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H29" t="s">
         <v>58</v>
@@ -1297,7 +1300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="H30" t="s">
         <v>58</v>
@@ -1320,7 +1323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H31" t="s">
         <v>58</v>
@@ -1343,7 +1346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1357,10 +1360,7 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2005</v>
-      </c>
-      <c r="G32">
-        <v>214</v>
+        <v>2004</v>
       </c>
       <c r="H32" t="s">
         <v>58</v>
@@ -1383,7 +1383,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
+      </c>
+      <c r="G33">
+        <v>214</v>
       </c>
       <c r="H33" t="s">
         <v>58</v>
@@ -1406,7 +1409,7 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H34" t="s">
         <v>58</v>
@@ -1429,7 +1432,7 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="H35" t="s">
         <v>58</v>
@@ -1452,7 +1455,7 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="H36" t="s">
         <v>58</v>
@@ -1475,10 +1478,7 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2010</v>
-      </c>
-      <c r="G37">
-        <v>68</v>
+        <v>2009</v>
       </c>
       <c r="H37" t="s">
         <v>58</v>
@@ -1501,7 +1501,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2010</v>
+      </c>
+      <c r="G38">
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>58</v>
@@ -1524,10 +1527,7 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2012</v>
-      </c>
-      <c r="G39">
-        <v>51</v>
+        <v>2011</v>
       </c>
       <c r="H39" t="s">
         <v>58</v>
@@ -1550,10 +1550,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G40">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s">
         <v>58</v>
@@ -1576,10 +1576,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
         <v>58</v>
@@ -1602,7 +1602,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G42">
+        <v>42</v>
       </c>
       <c r="H42" t="s">
         <v>58</v>
@@ -1625,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H43" t="s">
         <v>58</v>
@@ -1648,7 +1651,7 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H44" t="s">
         <v>58</v>
@@ -1671,7 +1674,7 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H45" t="s">
         <v>58</v>
@@ -1694,7 +1697,7 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H46" t="s">
         <v>58</v>
@@ -1711,25 +1714,19 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47">
-        <v>1990</v>
-      </c>
-      <c r="G47">
-        <v>378</v>
+        <v>2019</v>
       </c>
       <c r="H47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I47" t="s">
         <v>46</v>
-      </c>
-      <c r="J47" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -1746,7 +1743,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G48">
         <v>378</v>
@@ -1775,10 +1772,10 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G49">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H49" t="s">
         <v>59</v>
@@ -1804,7 +1801,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G50">
         <v>380</v>
@@ -1833,10 +1830,10 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G51">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H51" t="s">
         <v>59</v>
@@ -1862,10 +1859,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G52">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H52" t="s">
         <v>59</v>
@@ -1891,10 +1888,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G53">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H53" t="s">
         <v>59</v>
@@ -1920,10 +1917,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G54">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H54" t="s">
         <v>59</v>
@@ -1949,10 +1946,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G55">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H55" t="s">
         <v>59</v>
@@ -1978,10 +1975,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G56">
-        <v>114</v>
+        <v>395</v>
       </c>
       <c r="H56" t="s">
         <v>59</v>
@@ -2007,10 +2004,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G57">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H57" t="s">
         <v>59</v>
@@ -2036,10 +2033,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G58">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H58" t="s">
         <v>59</v>
@@ -2065,7 +2062,7 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G59">
         <v>113</v>
@@ -2094,10 +2091,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G60">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H60" t="s">
         <v>59</v>
@@ -2123,10 +2120,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G61">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H61" t="s">
         <v>59</v>
@@ -2152,10 +2149,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G62">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H62" t="s">
         <v>59</v>
@@ -2181,10 +2178,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G63">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H63" t="s">
         <v>59</v>
@@ -2210,10 +2207,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G64">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H64" t="s">
         <v>59</v>
@@ -2239,10 +2236,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G65">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H65" t="s">
         <v>59</v>
@@ -2268,10 +2265,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G66">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H66" t="s">
         <v>59</v>
@@ -2297,10 +2294,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G67">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H67" t="s">
         <v>59</v>
@@ -2326,10 +2323,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G68">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s">
         <v>59</v>
@@ -2355,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G69">
         <v>87</v>
@@ -2384,7 +2381,7 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G70">
         <v>87</v>
@@ -2413,7 +2410,7 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71">
         <v>87</v>
@@ -2442,7 +2439,7 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G72">
         <v>87</v>
@@ -2471,7 +2468,7 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G73">
         <v>87</v>
@@ -2500,10 +2497,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G74">
-        <v>82.515000000000001</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s">
         <v>59</v>
@@ -2529,10 +2526,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G75">
-        <v>82.302999999999997</v>
+        <v>82.515000000000001</v>
       </c>
       <c r="H75" t="s">
         <v>59</v>
@@ -2558,7 +2555,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G76">
         <v>82.302999999999997</v>
@@ -2581,16 +2578,16 @@
         <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>82.302999999999997</v>
       </c>
       <c r="H77" t="s">
         <v>59</v>
@@ -2600,9 +2597,6 @@
       </c>
       <c r="J77" t="s">
         <v>60</v>
-      </c>
-      <c r="L77" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2619,7 +2613,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2651,10 +2645,10 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="s">
         <v>59</v>
@@ -2683,10 +2677,10 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>59</v>
@@ -2715,10 +2709,10 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="s">
         <v>59</v>
@@ -2747,10 +2741,10 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
         <v>59</v>
@@ -2779,10 +2773,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>59</v>
@@ -2811,10 +2805,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
@@ -2843,10 +2837,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H85" t="s">
         <v>59</v>
@@ -2875,10 +2869,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H86" t="s">
         <v>59</v>
@@ -2907,7 +2901,7 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2939,10 +2933,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
         <v>59</v>
@@ -2971,10 +2965,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>59</v>
@@ -3003,7 +2997,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3035,7 +3029,7 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3067,7 +3061,7 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3099,7 +3093,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3131,7 +3125,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3163,7 +3157,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3195,7 +3189,7 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3227,7 +3221,7 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3259,7 +3253,7 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3291,7 +3285,7 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3323,7 +3317,7 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3355,7 +3349,7 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3387,7 +3381,7 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3419,7 +3413,7 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3451,7 +3445,7 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3483,7 +3477,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3515,7 +3509,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3541,13 +3535,13 @@
         <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>39</v>
       </c>
       <c r="E107">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3579,7 +3573,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3611,7 +3605,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3643,7 +3637,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3675,7 +3669,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3707,7 +3701,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3739,7 +3733,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3771,7 +3765,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3803,7 +3797,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3835,10 +3829,10 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G116">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="H116" t="s">
         <v>59</v>
@@ -3867,10 +3861,10 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="H117" t="s">
         <v>59</v>
@@ -3899,10 +3893,10 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>59</v>
@@ -3931,7 +3925,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3963,10 +3957,10 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="s">
         <v>59</v>
@@ -3995,7 +3989,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -4027,10 +4021,10 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
         <v>59</v>
@@ -4059,10 +4053,10 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123" t="s">
         <v>59</v>
@@ -4091,10 +4085,10 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>59</v>
@@ -4123,10 +4117,10 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H125" t="s">
         <v>59</v>
@@ -4155,10 +4149,10 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H126" t="s">
         <v>59</v>
@@ -4187,10 +4181,10 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G127">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H127" t="s">
         <v>59</v>
@@ -4219,10 +4213,10 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H128" t="s">
         <v>59</v>
@@ -4251,10 +4245,10 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>59</v>
@@ -4283,7 +4277,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4315,7 +4309,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4347,7 +4341,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4379,7 +4373,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4411,10 +4405,10 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134">
-        <v>4.4850000000000003</v>
+        <v>0</v>
       </c>
       <c r="H134" t="s">
         <v>59</v>
@@ -4443,10 +4437,10 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135">
-        <v>0.21199999999999999</v>
+        <v>4.4850000000000003</v>
       </c>
       <c r="H135" t="s">
         <v>59</v>
@@ -4475,10 +4469,10 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="H136" t="s">
         <v>59</v>
@@ -4501,16 +4495,28 @@
         <v>42</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>39</v>
       </c>
       <c r="E137">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>59</v>
       </c>
       <c r="I137" t="s">
         <v>46</v>
+      </c>
+      <c r="J137" t="s">
+        <v>60</v>
+      </c>
+      <c r="L137" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4527,7 +4533,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I138" t="s">
         <v>46</v>
@@ -4547,7 +4553,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I139" t="s">
         <v>46</v>
@@ -4567,7 +4573,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I140" t="s">
         <v>46</v>
@@ -4587,7 +4593,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I141" t="s">
         <v>46</v>
@@ -4607,7 +4613,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I142" t="s">
         <v>46</v>
@@ -4627,7 +4633,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I143" t="s">
         <v>46</v>
@@ -4647,7 +4653,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I144" t="s">
         <v>46</v>
@@ -4667,7 +4673,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I145" t="s">
         <v>46</v>
@@ -4687,7 +4693,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I146" t="s">
         <v>46</v>
@@ -4707,7 +4713,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I147" t="s">
         <v>46</v>
@@ -4727,7 +4733,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I148" t="s">
         <v>46</v>
@@ -4747,7 +4753,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I149" t="s">
         <v>46</v>
@@ -4767,7 +4773,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I150" t="s">
         <v>46</v>
@@ -4787,7 +4793,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I151" t="s">
         <v>46</v>
@@ -4807,7 +4813,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I152" t="s">
         <v>46</v>
@@ -4827,7 +4833,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I153" t="s">
         <v>46</v>
@@ -4847,7 +4853,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I154" t="s">
         <v>46</v>
@@ -4867,7 +4873,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I155" t="s">
         <v>46</v>
@@ -4887,7 +4893,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I156" t="s">
         <v>46</v>
@@ -4907,7 +4913,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I157" t="s">
         <v>46</v>
@@ -4927,7 +4933,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I158" t="s">
         <v>46</v>
@@ -4947,7 +4953,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I159" t="s">
         <v>46</v>
@@ -4967,7 +4973,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I160" t="s">
         <v>46</v>
@@ -4987,7 +4993,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I161" t="s">
         <v>46</v>
@@ -5007,7 +5013,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I162" t="s">
         <v>46</v>
@@ -5027,7 +5033,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I163" t="s">
         <v>46</v>
@@ -5047,7 +5053,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I164" t="s">
         <v>46</v>
@@ -5067,22 +5073,10 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2018</v>
-      </c>
-      <c r="G165">
-        <v>13</v>
-      </c>
-      <c r="H165" t="s">
-        <v>62</v>
+        <v>2017</v>
       </c>
       <c r="I165" t="s">
         <v>46</v>
-      </c>
-      <c r="J165" t="s">
-        <v>63</v>
-      </c>
-      <c r="L165" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5099,10 +5093,22 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G166">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s">
+        <v>62</v>
       </c>
       <c r="I166" t="s">
         <v>46</v>
+      </c>
+      <c r="J166" t="s">
+        <v>63</v>
+      </c>
+      <c r="L166" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5113,13 +5119,13 @@
         <v>42</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
         <v>39</v>
       </c>
       <c r="E167">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I167" t="s">
         <v>46</v>
@@ -5139,7 +5145,7 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I168" t="s">
         <v>46</v>
@@ -5159,7 +5165,7 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I169" t="s">
         <v>46</v>
@@ -5179,7 +5185,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I170" t="s">
         <v>46</v>
@@ -5199,7 +5205,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I171" t="s">
         <v>46</v>
@@ -5219,7 +5225,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I172" t="s">
         <v>46</v>
@@ -5239,7 +5245,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I173" t="s">
         <v>46</v>
@@ -5259,7 +5265,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I174" t="s">
         <v>46</v>
@@ -5279,7 +5285,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I175" t="s">
         <v>46</v>
@@ -5299,7 +5305,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I176" t="s">
         <v>46</v>
@@ -5319,7 +5325,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I177" t="s">
         <v>46</v>
@@ -5339,7 +5345,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I178" t="s">
         <v>46</v>
@@ -5359,7 +5365,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I179" t="s">
         <v>46</v>
@@ -5379,7 +5385,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I180" t="s">
         <v>46</v>
@@ -5399,7 +5405,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I181" t="s">
         <v>46</v>
@@ -5419,7 +5425,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I182" t="s">
         <v>46</v>
@@ -5439,7 +5445,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I183" t="s">
         <v>46</v>
@@ -5459,7 +5465,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I184" t="s">
         <v>46</v>
@@ -5479,7 +5485,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I185" t="s">
         <v>46</v>
@@ -5499,7 +5505,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I186" t="s">
         <v>46</v>
@@ -5519,7 +5525,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I187" t="s">
         <v>46</v>
@@ -5539,7 +5545,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I188" t="s">
         <v>46</v>
@@ -5559,7 +5565,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I189" t="s">
         <v>46</v>
@@ -5579,7 +5585,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I190" t="s">
         <v>46</v>
@@ -5599,7 +5605,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I191" t="s">
         <v>46</v>
@@ -5619,7 +5625,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I192" t="s">
         <v>46</v>
@@ -5639,7 +5645,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I193" t="s">
         <v>46</v>
@@ -5659,7 +5665,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I194" t="s">
         <v>46</v>
@@ -5679,22 +5685,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2018</v>
-      </c>
-      <c r="G195">
-        <v>610</v>
-      </c>
-      <c r="H195" t="s">
-        <v>62</v>
+        <v>2017</v>
       </c>
       <c r="I195" t="s">
         <v>46</v>
-      </c>
-      <c r="J195" t="s">
-        <v>63</v>
-      </c>
-      <c r="L195" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -5711,10 +5705,22 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G196">
+        <v>610</v>
+      </c>
+      <c r="H196" t="s">
+        <v>62</v>
       </c>
       <c r="I196" t="s">
         <v>46</v>
+      </c>
+      <c r="J196" t="s">
+        <v>63</v>
+      </c>
+      <c r="L196" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -5725,13 +5731,13 @@
         <v>42</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>39</v>
       </c>
       <c r="E197">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I197" t="s">
         <v>46</v>
@@ -5751,7 +5757,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I198" t="s">
         <v>46</v>
@@ -5771,7 +5777,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I199" t="s">
         <v>46</v>
@@ -5791,7 +5797,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I200" t="s">
         <v>46</v>
@@ -5811,7 +5817,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I201" t="s">
         <v>46</v>
@@ -5831,7 +5837,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I202" t="s">
         <v>46</v>
@@ -5851,7 +5857,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I203" t="s">
         <v>46</v>
@@ -5871,7 +5877,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I204" t="s">
         <v>46</v>
@@ -5891,7 +5897,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I205" t="s">
         <v>46</v>
@@ -5911,7 +5917,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I206" t="s">
         <v>46</v>
@@ -5931,7 +5937,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I207" t="s">
         <v>46</v>
@@ -5951,7 +5957,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I208" t="s">
         <v>46</v>
@@ -5971,7 +5977,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I209" t="s">
         <v>46</v>
@@ -5991,7 +5997,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I210" t="s">
         <v>46</v>
@@ -6011,7 +6017,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I211" t="s">
         <v>46</v>
@@ -6031,7 +6037,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I212" t="s">
         <v>46</v>
@@ -6051,7 +6057,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I213" t="s">
         <v>46</v>
@@ -6071,7 +6077,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I214" t="s">
         <v>46</v>
@@ -6091,7 +6097,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I215" t="s">
         <v>46</v>
@@ -6111,7 +6117,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I216" t="s">
         <v>46</v>
@@ -6131,7 +6137,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I217" t="s">
         <v>46</v>
@@ -6151,7 +6157,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I218" t="s">
         <v>46</v>
@@ -6171,7 +6177,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I219" t="s">
         <v>46</v>
@@ -6191,7 +6197,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I220" t="s">
         <v>46</v>
@@ -6211,7 +6217,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I221" t="s">
         <v>46</v>
@@ -6231,7 +6237,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I222" t="s">
         <v>46</v>
@@ -6251,7 +6257,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I223" t="s">
         <v>46</v>
@@ -6271,7 +6277,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I224" t="s">
         <v>46</v>
@@ -6291,22 +6297,10 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2018</v>
-      </c>
-      <c r="G225">
-        <v>12.1</v>
-      </c>
-      <c r="H225" t="s">
-        <v>65</v>
+        <v>2017</v>
       </c>
       <c r="I225" t="s">
         <v>46</v>
-      </c>
-      <c r="J225" t="s">
-        <v>63</v>
-      </c>
-      <c r="L225" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6323,10 +6317,22 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G226">
+        <v>12.1</v>
+      </c>
+      <c r="H226" t="s">
+        <v>65</v>
       </c>
       <c r="I226" t="s">
         <v>46</v>
+      </c>
+      <c r="J226" t="s">
+        <v>63</v>
+      </c>
+      <c r="L226" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6337,28 +6343,16 @@
         <v>42</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>39</v>
       </c>
       <c r="E227">
-        <v>1990</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>59</v>
+        <v>2019</v>
       </c>
       <c r="I227" t="s">
         <v>46</v>
-      </c>
-      <c r="J227" t="s">
-        <v>60</v>
-      </c>
-      <c r="L227" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6375,7 +6369,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6407,7 +6401,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6439,7 +6433,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6471,7 +6465,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6503,7 +6497,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6535,7 +6529,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6567,7 +6561,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6599,7 +6593,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6631,10 +6625,10 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G236">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="H236" t="s">
         <v>59</v>
@@ -6663,10 +6657,10 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="H237" t="s">
         <v>59</v>
@@ -6695,10 +6689,10 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H238" t="s">
         <v>59</v>
@@ -6727,7 +6721,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6759,10 +6753,10 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240" t="s">
         <v>59</v>
@@ -6791,7 +6785,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -6823,10 +6817,10 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H242" t="s">
         <v>59</v>
@@ -6855,10 +6849,10 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H243" t="s">
         <v>59</v>
@@ -6887,10 +6881,10 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H244" t="s">
         <v>59</v>
@@ -6919,10 +6913,10 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G245">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H245" t="s">
         <v>59</v>
@@ -6951,10 +6945,10 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G246">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H246" t="s">
         <v>59</v>
@@ -6983,10 +6977,10 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G247">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H247" t="s">
         <v>59</v>
@@ -7015,10 +7009,10 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H248" t="s">
         <v>59</v>
@@ -7047,10 +7041,10 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>59</v>
@@ -7079,7 +7073,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7111,7 +7105,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7143,7 +7137,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7175,7 +7169,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7207,10 +7201,10 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G254">
-        <v>4.4850000000000003</v>
+        <v>0</v>
       </c>
       <c r="H254" t="s">
         <v>59</v>
@@ -7239,10 +7233,10 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G255">
-        <v>0.21199999999999999</v>
+        <v>4.4850000000000003</v>
       </c>
       <c r="H255" t="s">
         <v>59</v>
@@ -7271,51 +7265,57 @@
         <v>39</v>
       </c>
       <c r="E256">
+        <v>2018</v>
+      </c>
+      <c r="G256">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H256" t="s">
+        <v>59</v>
+      </c>
+      <c r="I256" t="s">
+        <v>46</v>
+      </c>
+      <c r="J256" t="s">
+        <v>60</v>
+      </c>
+      <c r="L256" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>16</v>
+      </c>
+      <c r="B257" t="s">
+        <v>42</v>
+      </c>
+      <c r="C257" t="s">
+        <v>26</v>
+      </c>
+      <c r="D257" t="s">
+        <v>39</v>
+      </c>
+      <c r="E257">
         <v>2019</v>
       </c>
-      <c r="G256">
+      <c r="G257">
         <v>0</v>
       </c>
-      <c r="H256" t="s">
-        <v>59</v>
-      </c>
-      <c r="I256" t="s">
-        <v>46</v>
-      </c>
-      <c r="J256" t="s">
-        <v>60</v>
-      </c>
-      <c r="L256" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>16</v>
-      </c>
-      <c r="B257" t="s">
-        <v>42</v>
-      </c>
-      <c r="C257" t="s">
-        <v>28</v>
-      </c>
-      <c r="D257" t="s">
-        <v>39</v>
-      </c>
-      <c r="E257">
-        <v>1990</v>
-      </c>
-      <c r="G257">
-        <v>1.1000000000000001</v>
+      <c r="H257" t="s">
+        <v>59</v>
       </c>
       <c r="I257" t="s">
         <v>46</v>
       </c>
       <c r="J257" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="L257" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>16</v>
       </c>
@@ -7329,16 +7329,19 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G258">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I258" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J258" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -7352,7 +7355,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G259">
         <v>0.85</v>
@@ -7361,7 +7364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>16</v>
       </c>
@@ -7375,7 +7378,7 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G260">
         <v>0.85</v>
@@ -7384,7 +7387,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -7398,7 +7401,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G261">
         <v>0.85</v>
@@ -7407,7 +7410,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -7421,7 +7424,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G262">
         <v>0.85</v>
@@ -7430,7 +7433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -7444,7 +7447,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G263">
         <v>0.85</v>
@@ -7453,7 +7456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>16</v>
       </c>
@@ -7467,7 +7470,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G264">
         <v>0.85</v>
@@ -7476,7 +7479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -7490,7 +7493,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G265">
         <v>0.85</v>
@@ -7499,7 +7502,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>16</v>
       </c>
@@ -7513,7 +7516,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G266">
         <v>0.85</v>
@@ -7522,7 +7525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G267">
         <v>0.85</v>
@@ -7545,7 +7548,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -7559,7 +7562,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G268">
         <v>0.85</v>
@@ -7568,7 +7571,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -7582,7 +7585,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G269">
         <v>0.85</v>
@@ -7591,7 +7594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -7605,7 +7608,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G270">
         <v>0.85</v>
@@ -7614,7 +7617,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -7628,7 +7631,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G271">
         <v>0.85</v>
@@ -7637,7 +7640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -7651,7 +7654,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G272">
         <v>0.85</v>
@@ -7674,7 +7677,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G273">
         <v>0.85</v>
@@ -7697,7 +7700,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G274">
         <v>0.85</v>
@@ -7720,7 +7723,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G275">
         <v>0.85</v>
@@ -7743,7 +7746,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G276">
         <v>0.85</v>
@@ -7766,7 +7769,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G277">
         <v>0.85</v>
@@ -7789,7 +7792,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G278">
         <v>0.85</v>
@@ -7812,7 +7815,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G279">
         <v>0.85</v>
@@ -7835,7 +7838,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G280">
         <v>0.85</v>
@@ -7858,7 +7861,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G281">
         <v>0.85</v>
@@ -7881,7 +7884,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G282">
         <v>0.85</v>
@@ -7904,7 +7907,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G283">
         <v>0.85</v>
@@ -7927,7 +7930,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G284">
         <v>0.85</v>
@@ -7950,7 +7953,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G285">
         <v>0.85</v>
@@ -7973,7 +7976,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G286">
         <v>0.85</v>
@@ -7990,22 +7993,19 @@
         <v>42</v>
       </c>
       <c r="C287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
         <v>39</v>
       </c>
       <c r="E287">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I287" t="s">
         <v>46</v>
-      </c>
-      <c r="J287" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -8022,13 +8022,16 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G288">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I288" t="s">
         <v>46</v>
+      </c>
+      <c r="J288" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -8045,7 +8048,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G289">
         <v>0.02</v>
@@ -8068,7 +8071,7 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G290">
         <v>0.02</v>
@@ -8091,7 +8094,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G291">
         <v>0.02</v>
@@ -8114,7 +8117,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G292">
         <v>0.02</v>
@@ -8137,7 +8140,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G293">
         <v>0.02</v>
@@ -8160,7 +8163,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G294">
         <v>0.02</v>
@@ -8183,7 +8186,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G295">
         <v>0.02</v>
@@ -8206,7 +8209,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G296">
         <v>0.02</v>
@@ -8229,7 +8232,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G297">
         <v>0.02</v>
@@ -8252,7 +8255,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G298">
         <v>0.02</v>
@@ -8275,7 +8278,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G299">
         <v>0.02</v>
@@ -8298,7 +8301,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G300">
         <v>0.02</v>
@@ -8321,7 +8324,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G301">
         <v>0.02</v>
@@ -8344,7 +8347,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G302">
         <v>0.02</v>
@@ -8367,7 +8370,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G303">
         <v>0.02</v>
@@ -8390,7 +8393,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G304">
         <v>0.02</v>
@@ -8413,7 +8416,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G305">
         <v>0.02</v>
@@ -8436,7 +8439,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G306">
         <v>0.02</v>
@@ -8459,7 +8462,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G307">
         <v>0.02</v>
@@ -8482,7 +8485,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G308">
         <v>0.02</v>
@@ -8505,7 +8508,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G309">
         <v>0.02</v>
@@ -8528,7 +8531,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G310">
         <v>0.02</v>
@@ -8551,7 +8554,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311">
         <v>0.02</v>
@@ -8574,7 +8577,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G312">
         <v>0.02</v>
@@ -8597,7 +8600,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G313">
         <v>0.02</v>
@@ -8620,7 +8623,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G314">
         <v>0.02</v>
@@ -8643,7 +8646,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G315">
         <v>0.02</v>
@@ -8666,7 +8669,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G316">
         <v>0.02</v>
@@ -8675,11 +8678,34 @@
         <v>46</v>
       </c>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K429" s="2"/>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>42</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E317">
+        <v>2019</v>
+      </c>
+      <c r="G317">
+        <v>0.02</v>
+      </c>
+      <c r="I317" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L849" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_fueloil.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_fueloil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48E009-C3DE-3341-A91C-50F6799D7CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC7FBEB-A8E4-304A-ABE6-DFA9CE436FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="74">
   <si>
     <t>Name:</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -667,11 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -773,16 +782,16 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
         <v>67</v>
       </c>
       <c r="G7">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -794,16 +803,16 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
       </c>
       <c r="G8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -815,26 +824,18 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
-      </c>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -844,17 +845,18 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -863,26 +865,26 @@
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>278.60000000000002</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -892,19 +894,18 @@
       <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -914,21 +915,26 @@
         <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -938,13 +944,16 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" t="s">
-        <v>53</v>
+      <c r="G14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -956,13 +965,19 @@
         <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -974,23 +989,15 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="G16">
-        <v>0.88</v>
-      </c>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" t="s">
-        <v>55</v>
-      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1000,23 +1007,15 @@
         <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="G17">
-        <v>0.6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" t="s">
-        <v>57</v>
-      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1025,23 +1024,23 @@
       <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>386</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
+        <v>0.88</v>
       </c>
       <c r="I18" t="s">
         <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1051,20 +1050,23 @@
       <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1991</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>0.6</v>
       </c>
       <c r="I19" t="s">
         <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1081,7 +1083,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1992</v>
+        <v>1990</v>
+      </c>
+      <c r="G20">
+        <v>386</v>
       </c>
       <c r="H20" t="s">
         <v>58</v>
@@ -1104,7 +1109,7 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
@@ -1127,7 +1132,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -1150,7 +1155,7 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="H23" t="s">
         <v>58</v>
@@ -1173,7 +1178,7 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H24" t="s">
         <v>58</v>
@@ -1196,7 +1201,7 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H25" t="s">
         <v>58</v>
@@ -1219,7 +1224,7 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
@@ -1242,7 +1247,7 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="H27" t="s">
         <v>58</v>
@@ -1265,10 +1270,7 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2000</v>
-      </c>
-      <c r="G28">
-        <v>227</v>
+        <v>1998</v>
       </c>
       <c r="H28" t="s">
         <v>58</v>
@@ -1291,7 +1293,7 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="H29" t="s">
         <v>58</v>
@@ -1314,7 +1316,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2002</v>
+        <v>2000</v>
+      </c>
+      <c r="G30">
+        <v>227</v>
       </c>
       <c r="H30" t="s">
         <v>58</v>
@@ -1337,7 +1342,7 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="H31" t="s">
         <v>58</v>
@@ -1360,7 +1365,7 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="H32" t="s">
         <v>58</v>
@@ -1369,7 +1374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1383,10 +1388,7 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2005</v>
-      </c>
-      <c r="G33">
-        <v>214</v>
+        <v>2003</v>
       </c>
       <c r="H33" t="s">
         <v>58</v>
@@ -1395,7 +1397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="H34" t="s">
         <v>58</v>
@@ -1418,7 +1420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1432,7 +1434,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2007</v>
+        <v>2005</v>
+      </c>
+      <c r="G35">
+        <v>214</v>
       </c>
       <c r="H35" t="s">
         <v>58</v>
@@ -1441,7 +1446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1455,7 +1460,7 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="H36" t="s">
         <v>58</v>
@@ -1464,7 +1469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1478,7 +1483,7 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="H37" t="s">
         <v>58</v>
@@ -1487,7 +1492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1501,10 +1506,7 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2010</v>
-      </c>
-      <c r="G38">
-        <v>68</v>
+        <v>2008</v>
       </c>
       <c r="H38" t="s">
         <v>58</v>
@@ -1513,7 +1515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="H39" t="s">
         <v>58</v>
@@ -1536,7 +1538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1550,10 +1552,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
         <v>58</v>
@@ -1562,7 +1564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1576,10 +1578,7 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2013</v>
-      </c>
-      <c r="G41">
-        <v>46</v>
+        <v>2011</v>
       </c>
       <c r="H41" t="s">
         <v>58</v>
@@ -1588,7 +1587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1602,10 +1601,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G42">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s">
         <v>58</v>
@@ -1614,7 +1613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1628,7 +1627,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2015</v>
+        <v>2013</v>
+      </c>
+      <c r="G43">
+        <v>46</v>
       </c>
       <c r="H43" t="s">
         <v>58</v>
@@ -1637,7 +1639,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -1651,7 +1653,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2016</v>
+        <v>2014</v>
+      </c>
+      <c r="G44">
+        <v>42</v>
       </c>
       <c r="H44" t="s">
         <v>58</v>
@@ -1660,7 +1665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="H45" t="s">
         <v>58</v>
@@ -1683,7 +1688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1697,7 +1702,7 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="H46" t="s">
         <v>58</v>
@@ -1706,7 +1711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1720,7 +1725,7 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H47" t="s">
         <v>58</v>
@@ -1729,7 +1734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1737,25 +1742,19 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1990</v>
-      </c>
-      <c r="G48">
-        <v>378</v>
+        <v>2018</v>
       </c>
       <c r="H48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I48" t="s">
         <v>46</v>
-      </c>
-      <c r="J48" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -1766,25 +1765,19 @@
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1991</v>
-      </c>
-      <c r="G49">
-        <v>378</v>
+        <v>2019</v>
       </c>
       <c r="H49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I49" t="s">
         <v>46</v>
-      </c>
-      <c r="J49" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -1801,10 +1794,10 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G50">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H50" t="s">
         <v>59</v>
@@ -1830,10 +1823,10 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G51">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H51" t="s">
         <v>59</v>
@@ -1859,10 +1852,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G52">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H52" t="s">
         <v>59</v>
@@ -1888,10 +1881,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G53">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H53" t="s">
         <v>59</v>
@@ -1917,10 +1910,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G54">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H54" t="s">
         <v>59</v>
@@ -1946,10 +1939,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G55">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H55" t="s">
         <v>59</v>
@@ -1975,10 +1968,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G56">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H56" t="s">
         <v>59</v>
@@ -2004,10 +1997,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G57">
-        <v>114</v>
+        <v>390</v>
       </c>
       <c r="H57" t="s">
         <v>59</v>
@@ -2033,10 +2026,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G58">
-        <v>112</v>
+        <v>395</v>
       </c>
       <c r="H58" t="s">
         <v>59</v>
@@ -2062,10 +2055,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G59">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H59" t="s">
         <v>59</v>
@@ -2091,10 +2084,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G60">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H60" t="s">
         <v>59</v>
@@ -2120,10 +2113,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G61">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H61" t="s">
         <v>59</v>
@@ -2149,10 +2142,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G62">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H62" t="s">
         <v>59</v>
@@ -2178,10 +2171,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G63">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H63" t="s">
         <v>59</v>
@@ -2207,10 +2200,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G64">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H64" t="s">
         <v>59</v>
@@ -2236,10 +2229,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G65">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H65" t="s">
         <v>59</v>
@@ -2265,10 +2258,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G66">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H66" t="s">
         <v>59</v>
@@ -2294,10 +2287,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G67">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="H67" t="s">
         <v>59</v>
@@ -2323,10 +2316,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G68">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H68" t="s">
         <v>59</v>
@@ -2352,10 +2345,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G69">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H69" t="s">
         <v>59</v>
@@ -2381,10 +2374,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G70">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s">
         <v>59</v>
@@ -2410,7 +2403,7 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G71">
         <v>87</v>
@@ -2439,7 +2432,7 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G72">
         <v>87</v>
@@ -2468,7 +2461,7 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G73">
         <v>87</v>
@@ -2497,7 +2490,7 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G74">
         <v>87</v>
@@ -2526,10 +2519,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G75">
-        <v>82.515000000000001</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s">
         <v>59</v>
@@ -2555,10 +2548,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G76">
-        <v>82.302999999999997</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s">
         <v>59</v>
@@ -2584,10 +2577,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G77">
-        <v>82.302999999999997</v>
+        <v>82.515000000000001</v>
       </c>
       <c r="H77" t="s">
         <v>59</v>
@@ -2607,16 +2600,16 @@
         <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>82.302999999999997</v>
       </c>
       <c r="H78" t="s">
         <v>59</v>
@@ -2626,9 +2619,6 @@
       </c>
       <c r="J78" t="s">
         <v>60</v>
-      </c>
-      <c r="L78" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2639,16 +2629,16 @@
         <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>82.302999999999997</v>
       </c>
       <c r="H79" t="s">
         <v>59</v>
@@ -2658,9 +2648,6 @@
       </c>
       <c r="J79" t="s">
         <v>60</v>
-      </c>
-      <c r="L79" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2677,10 +2664,10 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
         <v>59</v>
@@ -2709,7 +2696,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2741,7 +2728,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -2773,10 +2760,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="s">
         <v>59</v>
@@ -2805,10 +2792,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
@@ -2837,10 +2824,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
         <v>59</v>
@@ -2869,10 +2856,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H86" t="s">
         <v>59</v>
@@ -2901,10 +2888,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87" t="s">
         <v>59</v>
@@ -2933,10 +2920,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H88" t="s">
         <v>59</v>
@@ -2965,10 +2952,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>59</v>
@@ -2997,7 +2984,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3029,10 +3016,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>59</v>
@@ -3061,7 +3048,7 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3093,7 +3080,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3125,7 +3112,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3157,7 +3144,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3189,7 +3176,7 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3221,7 +3208,7 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3253,7 +3240,7 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3285,7 +3272,7 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3317,7 +3304,7 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3349,7 +3336,7 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3381,7 +3368,7 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3413,7 +3400,7 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3445,7 +3432,7 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3477,7 +3464,7 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3509,7 +3496,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3541,7 +3528,7 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3567,13 +3554,13 @@
         <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3599,13 +3586,13 @@
         <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3637,7 +3624,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3669,7 +3656,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3701,7 +3688,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3733,7 +3720,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3765,7 +3752,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3797,7 +3784,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3829,7 +3816,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3861,10 +3848,10 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G117">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="H117" t="s">
         <v>59</v>
@@ -3893,10 +3880,10 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H118" t="s">
         <v>59</v>
@@ -3925,10 +3912,10 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="H119" t="s">
         <v>59</v>
@@ -3957,10 +3944,10 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H120" t="s">
         <v>59</v>
@@ -3989,10 +3976,10 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="s">
         <v>59</v>
@@ -4021,10 +4008,10 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="s">
         <v>59</v>
@@ -4053,10 +4040,10 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>59</v>
@@ -4085,7 +4072,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -4117,7 +4104,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -4149,10 +4136,10 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G126">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>59</v>
@@ -4181,7 +4168,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -4213,10 +4200,10 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G128">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H128" t="s">
         <v>59</v>
@@ -4245,10 +4232,10 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129" t="s">
         <v>59</v>
@@ -4277,10 +4264,10 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H130" t="s">
         <v>59</v>
@@ -4309,10 +4296,10 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>59</v>
@@ -4341,7 +4328,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4373,7 +4360,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4405,7 +4392,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4437,10 +4424,10 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G135">
-        <v>4.4850000000000003</v>
+        <v>0</v>
       </c>
       <c r="H135" t="s">
         <v>59</v>
@@ -4469,10 +4456,10 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G136">
-        <v>0.21199999999999999</v>
+        <v>0</v>
       </c>
       <c r="H136" t="s">
         <v>59</v>
@@ -4501,10 +4488,10 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>4.4850000000000003</v>
       </c>
       <c r="H137" t="s">
         <v>59</v>
@@ -4527,16 +4514,28 @@
         <v>42</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G138">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H138" t="s">
+        <v>59</v>
       </c>
       <c r="I138" t="s">
         <v>46</v>
+      </c>
+      <c r="J138" t="s">
+        <v>60</v>
+      </c>
+      <c r="L138" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4547,16 +4546,28 @@
         <v>42</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>59</v>
       </c>
       <c r="I139" t="s">
         <v>46</v>
+      </c>
+      <c r="J139" t="s">
+        <v>60</v>
+      </c>
+      <c r="L139" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4573,7 +4584,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I140" t="s">
         <v>46</v>
@@ -4593,7 +4604,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I141" t="s">
         <v>46</v>
@@ -4613,7 +4624,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I142" t="s">
         <v>46</v>
@@ -4633,7 +4644,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I143" t="s">
         <v>46</v>
@@ -4653,7 +4664,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I144" t="s">
         <v>46</v>
@@ -4673,7 +4684,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I145" t="s">
         <v>46</v>
@@ -4693,7 +4704,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I146" t="s">
         <v>46</v>
@@ -4713,7 +4724,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I147" t="s">
         <v>46</v>
@@ -4733,7 +4744,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I148" t="s">
         <v>46</v>
@@ -4753,7 +4764,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I149" t="s">
         <v>46</v>
@@ -4773,7 +4784,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I150" t="s">
         <v>46</v>
@@ -4793,7 +4804,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I151" t="s">
         <v>46</v>
@@ -4813,7 +4824,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I152" t="s">
         <v>46</v>
@@ -4833,7 +4844,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I153" t="s">
         <v>46</v>
@@ -4853,7 +4864,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I154" t="s">
         <v>46</v>
@@ -4873,7 +4884,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I155" t="s">
         <v>46</v>
@@ -4893,7 +4904,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I156" t="s">
         <v>46</v>
@@ -4913,7 +4924,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I157" t="s">
         <v>46</v>
@@ -4933,7 +4944,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I158" t="s">
         <v>46</v>
@@ -4953,7 +4964,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I159" t="s">
         <v>46</v>
@@ -4973,7 +4984,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I160" t="s">
         <v>46</v>
@@ -4993,7 +5004,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I161" t="s">
         <v>46</v>
@@ -5013,7 +5024,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I162" t="s">
         <v>46</v>
@@ -5033,7 +5044,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I163" t="s">
         <v>46</v>
@@ -5053,7 +5064,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I164" t="s">
         <v>46</v>
@@ -5073,7 +5084,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I165" t="s">
         <v>46</v>
@@ -5093,22 +5104,10 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2018</v>
-      </c>
-      <c r="G166">
-        <v>13</v>
-      </c>
-      <c r="H166" t="s">
-        <v>62</v>
+        <v>2016</v>
       </c>
       <c r="I166" t="s">
         <v>46</v>
-      </c>
-      <c r="J166" t="s">
-        <v>63</v>
-      </c>
-      <c r="L166" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5125,7 +5124,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I167" t="s">
         <v>46</v>
@@ -5139,16 +5138,28 @@
         <v>42</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G168">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s">
+        <v>62</v>
       </c>
       <c r="I168" t="s">
         <v>46</v>
+      </c>
+      <c r="J168" t="s">
+        <v>63</v>
+      </c>
+      <c r="L168" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5159,13 +5170,13 @@
         <v>42</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I169" t="s">
         <v>46</v>
@@ -5185,7 +5196,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I170" t="s">
         <v>46</v>
@@ -5205,7 +5216,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I171" t="s">
         <v>46</v>
@@ -5225,7 +5236,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I172" t="s">
         <v>46</v>
@@ -5245,7 +5256,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I173" t="s">
         <v>46</v>
@@ -5265,7 +5276,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I174" t="s">
         <v>46</v>
@@ -5285,7 +5296,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I175" t="s">
         <v>46</v>
@@ -5305,7 +5316,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I176" t="s">
         <v>46</v>
@@ -5325,7 +5336,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I177" t="s">
         <v>46</v>
@@ -5345,7 +5356,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I178" t="s">
         <v>46</v>
@@ -5365,7 +5376,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I179" t="s">
         <v>46</v>
@@ -5385,7 +5396,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I180" t="s">
         <v>46</v>
@@ -5405,7 +5416,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I181" t="s">
         <v>46</v>
@@ -5425,7 +5436,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I182" t="s">
         <v>46</v>
@@ -5445,7 +5456,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I183" t="s">
         <v>46</v>
@@ -5465,7 +5476,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I184" t="s">
         <v>46</v>
@@ -5485,7 +5496,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I185" t="s">
         <v>46</v>
@@ -5505,7 +5516,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I186" t="s">
         <v>46</v>
@@ -5525,7 +5536,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I187" t="s">
         <v>46</v>
@@ -5545,7 +5556,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I188" t="s">
         <v>46</v>
@@ -5565,7 +5576,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I189" t="s">
         <v>46</v>
@@ -5585,7 +5596,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I190" t="s">
         <v>46</v>
@@ -5605,7 +5616,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I191" t="s">
         <v>46</v>
@@ -5625,7 +5636,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I192" t="s">
         <v>46</v>
@@ -5645,7 +5656,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I193" t="s">
         <v>46</v>
@@ -5665,7 +5676,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I194" t="s">
         <v>46</v>
@@ -5685,7 +5696,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I195" t="s">
         <v>46</v>
@@ -5705,22 +5716,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2018</v>
-      </c>
-      <c r="G196">
-        <v>610</v>
-      </c>
-      <c r="H196" t="s">
-        <v>62</v>
+        <v>2016</v>
       </c>
       <c r="I196" t="s">
         <v>46</v>
-      </c>
-      <c r="J196" t="s">
-        <v>63</v>
-      </c>
-      <c r="L196" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -5737,7 +5736,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I197" t="s">
         <v>46</v>
@@ -5751,16 +5750,28 @@
         <v>42</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G198">
+        <v>610</v>
+      </c>
+      <c r="H198" t="s">
+        <v>62</v>
       </c>
       <c r="I198" t="s">
         <v>46</v>
+      </c>
+      <c r="J198" t="s">
+        <v>63</v>
+      </c>
+      <c r="L198" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -5771,13 +5782,13 @@
         <v>42</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I199" t="s">
         <v>46</v>
@@ -5797,7 +5808,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I200" t="s">
         <v>46</v>
@@ -5817,7 +5828,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I201" t="s">
         <v>46</v>
@@ -5837,7 +5848,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I202" t="s">
         <v>46</v>
@@ -5857,7 +5868,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I203" t="s">
         <v>46</v>
@@ -5877,7 +5888,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I204" t="s">
         <v>46</v>
@@ -5897,7 +5908,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I205" t="s">
         <v>46</v>
@@ -5917,7 +5928,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I206" t="s">
         <v>46</v>
@@ -5937,7 +5948,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I207" t="s">
         <v>46</v>
@@ -5957,7 +5968,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I208" t="s">
         <v>46</v>
@@ -5977,7 +5988,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I209" t="s">
         <v>46</v>
@@ -5997,7 +6008,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I210" t="s">
         <v>46</v>
@@ -6017,7 +6028,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I211" t="s">
         <v>46</v>
@@ -6037,7 +6048,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I212" t="s">
         <v>46</v>
@@ -6057,7 +6068,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I213" t="s">
         <v>46</v>
@@ -6077,7 +6088,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I214" t="s">
         <v>46</v>
@@ -6097,7 +6108,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I215" t="s">
         <v>46</v>
@@ -6117,7 +6128,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I216" t="s">
         <v>46</v>
@@ -6137,7 +6148,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I217" t="s">
         <v>46</v>
@@ -6157,7 +6168,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I218" t="s">
         <v>46</v>
@@ -6177,7 +6188,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I219" t="s">
         <v>46</v>
@@ -6197,7 +6208,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I220" t="s">
         <v>46</v>
@@ -6217,7 +6228,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I221" t="s">
         <v>46</v>
@@ -6237,7 +6248,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I222" t="s">
         <v>46</v>
@@ -6257,7 +6268,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I223" t="s">
         <v>46</v>
@@ -6277,7 +6288,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I224" t="s">
         <v>46</v>
@@ -6297,7 +6308,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I225" t="s">
         <v>46</v>
@@ -6317,22 +6328,10 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2018</v>
-      </c>
-      <c r="G226">
-        <v>12.1</v>
-      </c>
-      <c r="H226" t="s">
-        <v>65</v>
+        <v>2016</v>
       </c>
       <c r="I226" t="s">
         <v>46</v>
-      </c>
-      <c r="J226" t="s">
-        <v>63</v>
-      </c>
-      <c r="L226" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6349,7 +6348,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I227" t="s">
         <v>46</v>
@@ -6363,28 +6362,28 @@
         <v>42</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="H228" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I228" t="s">
         <v>46</v>
       </c>
       <c r="J228" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L228" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6395,28 +6394,16 @@
         <v>42</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1991</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>59</v>
+        <v>2019</v>
       </c>
       <c r="I229" t="s">
         <v>46</v>
-      </c>
-      <c r="J229" t="s">
-        <v>60</v>
-      </c>
-      <c r="L229" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6433,7 +6420,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6465,7 +6452,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6497,7 +6484,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6529,7 +6516,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6561,7 +6548,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6593,7 +6580,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6625,7 +6612,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6657,10 +6644,10 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G237">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="H237" t="s">
         <v>59</v>
@@ -6689,10 +6676,10 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H238" t="s">
         <v>59</v>
@@ -6721,10 +6708,10 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="H239" t="s">
         <v>59</v>
@@ -6753,10 +6740,10 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H240" t="s">
         <v>59</v>
@@ -6785,10 +6772,10 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241" t="s">
         <v>59</v>
@@ -6817,10 +6804,10 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242" t="s">
         <v>59</v>
@@ -6849,10 +6836,10 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>59</v>
@@ -6881,7 +6868,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -6913,7 +6900,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G245">
         <v>3</v>
@@ -6945,10 +6932,10 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G246">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>59</v>
@@ -6977,7 +6964,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -7009,10 +6996,10 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G248">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H248" t="s">
         <v>59</v>
@@ -7041,10 +7028,10 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H249" t="s">
         <v>59</v>
@@ -7073,10 +7060,10 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H250" t="s">
         <v>59</v>
@@ -7105,10 +7092,10 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>59</v>
@@ -7137,7 +7124,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7169,7 +7156,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7201,7 +7188,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7233,10 +7220,10 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G255">
-        <v>4.4850000000000003</v>
+        <v>0</v>
       </c>
       <c r="H255" t="s">
         <v>59</v>
@@ -7265,10 +7252,10 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G256">
-        <v>0.21199999999999999</v>
+        <v>0</v>
       </c>
       <c r="H256" t="s">
         <v>59</v>
@@ -7297,10 +7284,10 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>4.4850000000000003</v>
       </c>
       <c r="H257" t="s">
         <v>59</v>
@@ -7323,22 +7310,28 @@
         <v>42</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G258">
-        <v>1.1000000000000001</v>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H258" t="s">
+        <v>59</v>
       </c>
       <c r="I258" t="s">
         <v>46</v>
       </c>
       <c r="J258" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="L258" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7349,19 +7342,28 @@
         <v>42</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G259">
-        <v>0.85</v>
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>59</v>
       </c>
       <c r="I259" t="s">
         <v>46</v>
+      </c>
+      <c r="J259" t="s">
+        <v>60</v>
+      </c>
+      <c r="L259" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7378,13 +7380,16 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G260">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I260" t="s">
         <v>46</v>
+      </c>
+      <c r="J260" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7401,7 +7406,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G261">
         <v>0.85</v>
@@ -7424,7 +7429,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G262">
         <v>0.85</v>
@@ -7447,7 +7452,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G263">
         <v>0.85</v>
@@ -7470,7 +7475,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G264">
         <v>0.85</v>
@@ -7493,7 +7498,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G265">
         <v>0.85</v>
@@ -7516,7 +7521,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G266">
         <v>0.85</v>
@@ -7539,7 +7544,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G267">
         <v>0.85</v>
@@ -7562,7 +7567,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G268">
         <v>0.85</v>
@@ -7585,7 +7590,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G269">
         <v>0.85</v>
@@ -7608,7 +7613,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G270">
         <v>0.85</v>
@@ -7631,7 +7636,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G271">
         <v>0.85</v>
@@ -7654,7 +7659,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G272">
         <v>0.85</v>
@@ -7663,7 +7668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>16</v>
       </c>
@@ -7677,7 +7682,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G273">
         <v>0.85</v>
@@ -7686,7 +7691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -7700,7 +7705,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G274">
         <v>0.85</v>
@@ -7709,7 +7714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>16</v>
       </c>
@@ -7723,7 +7728,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G275">
         <v>0.85</v>
@@ -7732,7 +7737,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>16</v>
       </c>
@@ -7746,7 +7751,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G276">
         <v>0.85</v>
@@ -7755,7 +7760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>16</v>
       </c>
@@ -7769,7 +7774,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G277">
         <v>0.85</v>
@@ -7778,7 +7783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>16</v>
       </c>
@@ -7792,7 +7797,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G278">
         <v>0.85</v>
@@ -7801,7 +7806,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>16</v>
       </c>
@@ -7815,7 +7820,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G279">
         <v>0.85</v>
@@ -7824,7 +7829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>16</v>
       </c>
@@ -7838,7 +7843,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G280">
         <v>0.85</v>
@@ -7847,7 +7852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>16</v>
       </c>
@@ -7861,7 +7866,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G281">
         <v>0.85</v>
@@ -7870,7 +7875,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>16</v>
       </c>
@@ -7884,7 +7889,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G282">
         <v>0.85</v>
@@ -7893,7 +7898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>16</v>
       </c>
@@ -7907,7 +7912,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G283">
         <v>0.85</v>
@@ -7916,7 +7921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -7930,7 +7935,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G284">
         <v>0.85</v>
@@ -7939,7 +7944,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>16</v>
       </c>
@@ -7953,7 +7958,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G285">
         <v>0.85</v>
@@ -7962,7 +7967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>16</v>
       </c>
@@ -7976,7 +7981,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G286">
         <v>0.85</v>
@@ -7985,7 +7990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>16</v>
       </c>
@@ -7999,7 +8004,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G287">
         <v>0.85</v>
@@ -8008,7 +8013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>16</v>
       </c>
@@ -8016,25 +8021,22 @@
         <v>42</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I288" t="s">
         <v>46</v>
       </c>
-      <c r="J288" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>16</v>
       </c>
@@ -8042,22 +8044,22 @@
         <v>42</v>
       </c>
       <c r="C289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G289">
-        <v>0.02</v>
+        <v>0.85</v>
       </c>
       <c r="I289" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>16</v>
       </c>
@@ -8071,16 +8073,19 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G290">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I290" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J290" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>16</v>
       </c>
@@ -8094,7 +8099,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G291">
         <v>0.02</v>
@@ -8103,7 +8108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>16</v>
       </c>
@@ -8117,7 +8122,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G292">
         <v>0.02</v>
@@ -8126,7 +8131,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>16</v>
       </c>
@@ -8140,7 +8145,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G293">
         <v>0.02</v>
@@ -8149,7 +8154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>16</v>
       </c>
@@ -8163,7 +8168,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G294">
         <v>0.02</v>
@@ -8172,7 +8177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -8186,7 +8191,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G295">
         <v>0.02</v>
@@ -8195,7 +8200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>16</v>
       </c>
@@ -8209,7 +8214,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G296">
         <v>0.02</v>
@@ -8218,7 +8223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>16</v>
       </c>
@@ -8232,7 +8237,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G297">
         <v>0.02</v>
@@ -8241,7 +8246,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>16</v>
       </c>
@@ -8255,7 +8260,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G298">
         <v>0.02</v>
@@ -8264,7 +8269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>16</v>
       </c>
@@ -8278,7 +8283,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G299">
         <v>0.02</v>
@@ -8287,7 +8292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>16</v>
       </c>
@@ -8301,7 +8306,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G300">
         <v>0.02</v>
@@ -8310,7 +8315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>16</v>
       </c>
@@ -8324,7 +8329,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G301">
         <v>0.02</v>
@@ -8333,7 +8338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>16</v>
       </c>
@@ -8347,7 +8352,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G302">
         <v>0.02</v>
@@ -8356,7 +8361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>16</v>
       </c>
@@ -8370,7 +8375,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G303">
         <v>0.02</v>
@@ -8379,7 +8384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>16</v>
       </c>
@@ -8393,7 +8398,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G304">
         <v>0.02</v>
@@ -8416,7 +8421,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G305">
         <v>0.02</v>
@@ -8439,7 +8444,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G306">
         <v>0.02</v>
@@ -8462,7 +8467,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G307">
         <v>0.02</v>
@@ -8485,7 +8490,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G308">
         <v>0.02</v>
@@ -8508,7 +8513,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G309">
         <v>0.02</v>
@@ -8531,7 +8536,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G310">
         <v>0.02</v>
@@ -8554,7 +8559,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311">
         <v>0.02</v>
@@ -8577,7 +8582,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G312">
         <v>0.02</v>
@@ -8600,7 +8605,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G313">
         <v>0.02</v>
@@ -8623,7 +8628,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G314">
         <v>0.02</v>
@@ -8646,7 +8651,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G315">
         <v>0.02</v>
@@ -8669,7 +8674,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G316">
         <v>0.02</v>
@@ -8692,7 +8697,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G317">
         <v>0.02</v>
@@ -8701,11 +8706,57 @@
         <v>46</v>
       </c>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K430" s="2"/>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>42</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="G318">
+        <v>0.02</v>
+      </c>
+      <c r="I318" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>42</v>
+      </c>
+      <c r="C319" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" t="s">
+        <v>39</v>
+      </c>
+      <c r="E319">
+        <v>2019</v>
+      </c>
+      <c r="G319">
+        <v>0.02</v>
+      </c>
+      <c r="I319" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_fueloil.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_fueloil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC7FBEB-A8E4-304A-ABE6-DFA9CE436FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA984BF-2294-3942-B840-60DCDE91C03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="75">
   <si>
     <t>Name:</t>
   </si>
@@ -245,9 +245,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -255,6 +252,12 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -782,10 +785,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>67</v>
@@ -803,10 +806,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
         <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -901,10 +904,13 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
